--- a/Sprint 2/Team06Report.xlsx
+++ b/Sprint 2/Team06Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\working_folder\cs555tm062022Fall\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stevens\Agile\cs555tm062022Fall\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E17801-7255-4F9A-BA8C-820144BA4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1284" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1284" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,25 +22,12 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgWwcNvddtWw3w4OiyN1CiacHpZlA=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="190">
   <si>
     <t>Initials</t>
   </si>
@@ -591,16 +577,37 @@
   <si>
     <t>Pending</t>
   </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Working as a team</t>
+  </si>
+  <si>
+    <t>Waiting till the last moment</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Less team meetings</t>
+  </si>
+  <si>
+    <t>More team meetings</t>
+  </si>
+  <si>
+    <t>Solve blockers as early as possible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -631,6 +638,11 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -664,11 +676,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -695,10 +711,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,7 +746,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -788,7 +820,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8084-4DF4-A68A-A40CF043ED70}"/>
             </c:ext>
@@ -803,11 +835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307067368"/>
-        <c:axId val="307067752"/>
+        <c:axId val="223170832"/>
+        <c:axId val="223175144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="307067368"/>
+        <c:axId val="223170832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,14 +884,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307067752"/>
+        <c:crossAx val="223175144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307067752"/>
+        <c:axId val="223175144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307067368"/>
+        <c:crossAx val="223170832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -934,7 +966,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -990,7 +1022,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2209-4441-BC72-8A9E27ABD0B3}"/>
             </c:ext>
@@ -1005,11 +1037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307070920"/>
-        <c:axId val="307333600"/>
+        <c:axId val="223172400"/>
+        <c:axId val="223172792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="307070920"/>
+        <c:axId val="223172400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,6 +1065,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -1054,14 +1087,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307333600"/>
+        <c:crossAx val="223172792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307333600"/>
+        <c:axId val="223172792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,6 +1127,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1118,7 +1152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307070920"/>
+        <c:crossAx val="223172400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1150,7 +1184,7 @@
         <xdr:cNvPr id="1232559327" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,7 +1215,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1323,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1407,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1491,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1599,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1683,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1772,7 @@
         <xdr:cNvPr id="1994778976" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060E9E576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060E9E576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3066,9 +3100,9 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{620B3EBE-6A25-4B39-99BA-5162008CDB53}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3076,11 +3110,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3145,7 +3179,7 @@
         <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3162,7 +3196,7 @@
         <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3179,7 +3213,7 @@
         <v>172</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3196,7 +3230,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3281,7 +3315,7 @@
         <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3298,7 +3332,7 @@
         <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3315,7 +3349,7 @@
         <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3366,7 @@
         <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4521,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8693,11 +8727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12781,11 +12815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B21" sqref="B14:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12842,7 +12876,7 @@
         <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
@@ -12850,9 +12884,15 @@
       <c r="F2" s="2">
         <v>120</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="17">
+        <v>30</v>
+      </c>
+      <c r="H2" s="17">
+        <v>400</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -12865,7 +12905,7 @@
         <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -12873,7 +12913,15 @@
       <c r="F3">
         <v>180</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="G3" s="16">
+        <v>60</v>
+      </c>
+      <c r="H3" s="16">
+        <v>300</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -13016,7 +13064,9 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
+      <c r="B17" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13034,7 +13084,9 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16960,16 +17012,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17059,35 +17113,127 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18063,11 +18209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18134,8 +18280,46 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19138,7 +19322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20183,7 +20367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">

--- a/Sprint 2/Team06Report.xlsx
+++ b/Sprint 2/Team06Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stevens\Agile\cs555tm062022Fall\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUTHAN~1\AppData\Local\Temp\Rar$DIa21780.24603\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB47601-281D-4268-8B41-EC9B845A3F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1284" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,22 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="190">
   <si>
     <t>Initials</t>
   </si>
@@ -575,9 +586,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -598,11 +606,14 @@
   <si>
     <t>Solve blockers as early as possible</t>
   </si>
+  <si>
+    <t>-test using various methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -676,11 +687,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
@@ -720,17 +732,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{D32C9D2D-2827-46AD-9E27-B07898F6F1CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,7 +759,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -820,7 +833,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8084-4DF4-A68A-A40CF043ED70}"/>
             </c:ext>
@@ -966,7 +979,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1003,6 +1016,9 @@
                 <c:pt idx="1">
                   <c:v>41917</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43009</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1013,16 +1029,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2209-4441-BC72-8A9E27ABD0B3}"/>
             </c:ext>
@@ -1065,7 +1084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -1127,7 +1145,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1184,7 +1201,7 @@
         <xdr:cNvPr id="1232559327" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1232,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1424,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1508,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1616,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1700,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1789,7 @@
         <xdr:cNvPr id="1994778976" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060E9E576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060E9E576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3100,9 +3117,9 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3110,11 +3127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3196,7 @@
         <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3196,7 +3213,7 @@
         <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3213,7 +3230,7 @@
         <v>172</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,7 +3247,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3315,7 +3332,7 @@
         <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3349,7 @@
         <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3349,7 +3366,7 @@
         <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3366,7 +3383,7 @@
         <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3451,7 +3468,7 @@
         <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,7 +3485,7 @@
         <v>175</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3476,16 +3493,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3493,16 +3510,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3510,10 +3527,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>175</v>
@@ -3527,10 +3544,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>175</v>
@@ -3544,10 +3561,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>175</v>
@@ -3561,10 +3578,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>175</v>
@@ -4555,7 +4572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8727,11 +8744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8790,10 +8807,13 @@
         <v>41904</v>
       </c>
       <c r="B2" s="2">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -8802,7 +8822,7 @@
         <v>41917</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <f>B2-B3</f>
@@ -8816,11 +8836,22 @@
       </c>
       <c r="F3" s="5">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>43009</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12815,11 +12846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B14:B21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12891,7 +12922,7 @@
         <v>400</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12920,7 +12951,7 @@
         <v>300</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12992,9 +13023,23 @@
         <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13007,9 +13052,23 @@
         <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -13065,12 +13124,14 @@
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
+      <c r="B18" s="21" t="s">
+        <v>189</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13085,7 +13146,7 @@
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -17012,11 +17073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17171,8 +17232,64 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17192,17 +17309,17 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17212,16 +17329,16 @@
     </row>
     <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
-        <v>187</v>
+      <c r="B20" s="20" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18209,11 +18326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18263,7 +18380,13 @@
         <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18277,7 +18400,13 @@
         <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18320,8 +18449,46 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19322,7 +19489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20367,11 +20534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
